--- a/Assets/Data/SourceTables/日常系统.xlsx
+++ b/Assets/Data/SourceTables/日常系统.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game repo\school\Assets\Data\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE24A1-8396-4EA9-9B42-402497B00025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B187DD2-A666-45BE-9268-C045DED71140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程系统" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +126,26 @@
   </si>
   <si>
     <t>结束剧情ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,10 +206,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -534,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -549,10 +561,10 @@
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>6</v>
@@ -564,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>7</v>
@@ -579,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>8</v>
@@ -594,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -613,11 +625,20 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2">
+        <v>20001</v>
+      </c>
       <c r="H2" s="1">
         <v>0.63541666666666663</v>
       </c>
+      <c r="J2">
+        <v>20001</v>
+      </c>
       <c r="M2" s="1">
         <v>0.84375</v>
+      </c>
+      <c r="O2">
+        <v>20001</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -633,11 +654,20 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>20002</v>
+      </c>
       <c r="H3" s="1">
         <v>0.67708333333333304</v>
       </c>
+      <c r="J3">
+        <v>20002</v>
+      </c>
       <c r="M3" s="1">
         <v>0.88541666666666696</v>
+      </c>
+      <c r="O3">
+        <v>20002</v>
       </c>
     </row>
   </sheetData>
@@ -648,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369CECC-53DA-4627-B58F-8141DA65BED6}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,39 +697,62 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74616A16-854D-4C81-B83A-6963E03D2814}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -726,36 +779,36 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="B2">
         <v>900001</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>900001</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Assets/Data/SourceTables/日常系统.xlsx
+++ b/Assets/Data/SourceTables/日常系统.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game repo\school\Assets\Data\SourceTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\A1\schoolA\Assets\Data\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B187DD2-A666-45BE-9268-C045DED71140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE8629-A6B6-4ABD-BC36-9241B198EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="4740" windowWidth="38700" windowHeight="15435" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程系统" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间段A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +142,10 @@
   </si>
   <si>
     <t>NPC_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,20 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,7 +489,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,94 +516,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -623,16 +617,28 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>20001</v>
       </c>
+      <c r="F2">
+        <v>900001</v>
+      </c>
+      <c r="G2">
+        <v>900003</v>
+      </c>
       <c r="H2" s="1">
         <v>0.63541666666666663</v>
       </c>
       <c r="J2">
         <v>20001</v>
+      </c>
+      <c r="K2">
+        <v>900001</v>
+      </c>
+      <c r="L2">
+        <v>900004</v>
       </c>
       <c r="M2" s="1">
         <v>0.84375</v>
@@ -652,7 +658,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>20002</v>
@@ -694,37 +700,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -732,13 +738,13 @@
         <v>20001</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -746,13 +752,13 @@
         <v>20002</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -763,74 +769,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74616A16-854D-4C81-B83A-6963E03D2814}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>900001</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B2">
-        <v>900001</v>
-      </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>900002</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3">
-        <v>900001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>900003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>900004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="B4">
-        <v>900001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="B5">
-        <v>900001</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
